--- a/biology/Zoologie/Brachychthoniidae/Brachychthoniidae.xlsx
+++ b/biology/Zoologie/Brachychthoniidae/Brachychthoniidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachychthonioidea
 Les Brachychthoniidae sont une famille d'acariens de l'ordre des Sarcoptiformes, la seule de la super-famille des Brachychthonioidea.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une famille à répartition cosmopolite, représentée par près de deux-cent espèces[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une famille à répartition cosmopolite, représentée par près de deux-cent espèces.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille a été créée en 1934 par l'arachnologue norvégien Sig Thor (d) (1856-1937)[2]. Brachychthonius est le genre type.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille a été créée en 1934 par l'arachnologue norvégien Sig Thor (d) (1856-1937). Brachychthonius est le genre type.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon l'ITIS      (18 juillet 2022)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon l'ITIS      (18 juillet 2022) :
 Brachychthonius Berlese, 1910
 Eobrachychthonius Jacot, 1936
 Liochthonius Hammen, 1959
